--- a/Raw Input Data/Tool_Input_Excel_v4 Batch 2_v2 (20250619).xlsx
+++ b/Raw Input Data/Tool_Input_Excel_v4 Batch 2_v2 (20250619).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hbap.adroot.hsbc\HK\HASE\28062201\Fraud_Ops_FIM_File_Sharing\HASE case\Gen AI\Upload to sharepoint\Batch 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2C5EC4-E190-42D4-994D-C441D7538F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEB5ED9-82A2-426C-BC1E-3D47C2624FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCC_General" sheetId="1" r:id="rId1"/>
@@ -1554,9 +1554,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1633,7 +1633,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1652,6 +1652,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1664,10 +1670,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1691,10 +1697,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1720,10 +1722,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1733,6 +1731,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2075,36 +2077,36 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="31"/>
+      <c r="C1" s="27"/>
       <c r="D1" t="s">
         <v>85</v>
       </c>
@@ -2112,8 +2114,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="30"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -2166,7 +2168,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="90">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -2218,7 +2220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="90">
+    <row r="4" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -2271,7 +2273,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="45.75">
+    <row r="5" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>290</v>
       </c>
@@ -2308,7 +2310,7 @@
       <c r="M5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="15" t="s">
         <v>295</v>
       </c>
       <c r="O5" s="2" t="s">
@@ -2324,7 +2326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="45.75">
+    <row r="6" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>290</v>
       </c>
@@ -2361,7 +2363,7 @@
       <c r="M6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="15" t="s">
         <v>295</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -2407,24 +2409,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" t="s">
         <v>277</v>
       </c>
       <c r="D1" t="s">
@@ -2446,7 +2448,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -2498,11 +2500,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="30">
         <v>1</v>
       </c>
       <c r="C4">
@@ -2549,82 +2551,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="2"/>
+    <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="115.44140625" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="76.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="115.5" customWidth="1"/>
+    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="76.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.75" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="31" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="30"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -2707,7 +2709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -2793,7 +2795,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -2815,7 +2817,7 @@
       <c r="G4" t="s">
         <v>409</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="23" t="s">
         <v>410</v>
       </c>
       <c r="I4" t="s">
@@ -2879,7 +2881,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>290</v>
       </c>
@@ -2892,7 +2894,7 @@
       <c r="D5" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>414</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -2965,7 +2967,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3002,7 +3004,7 @@
       <c r="L6" t="s">
         <v>426</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="24" t="s">
         <v>427</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -3035,7 +3037,7 @@
       <c r="X6" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="26" t="s">
+      <c r="Y6" s="24" t="s">
         <v>427</v>
       </c>
       <c r="Z6" t="s">
@@ -3045,7 +3047,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -3131,156 +3133,156 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
@@ -3344,109 +3346,109 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31" t="s">
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-    </row>
-    <row r="2" spans="1:44">
-      <c r="A2" s="30"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3577,7 +3579,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="45">
+    <row r="3" spans="1:44" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -3645,7 +3647,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="45">
+    <row r="4" spans="1:44" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>278</v>
       </c>
@@ -3694,7 +3696,7 @@
       <c r="T4" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="V4" s="29" t="s">
+      <c r="V4" t="s">
         <v>46</v>
       </c>
       <c r="X4" s="2" t="s">
@@ -3722,7 +3724,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -3768,13 +3770,13 @@
       <c r="S5" t="s">
         <v>190</v>
       </c>
-      <c r="T5" s="28" t="s">
+      <c r="T5" s="1" t="s">
         <v>476</v>
       </c>
       <c r="U5" t="s">
         <v>464</v>
       </c>
-      <c r="V5" s="29" t="s">
+      <c r="V5" t="s">
         <v>46</v>
       </c>
       <c r="X5" s="2"/>
@@ -3788,7 +3790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3834,13 +3836,13 @@
       <c r="S6" t="s">
         <v>190</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="T6" s="1" t="s">
         <v>465</v>
       </c>
       <c r="U6" t="s">
         <v>464</v>
       </c>
-      <c r="V6" s="29" t="s">
+      <c r="V6" t="s">
         <v>46</v>
       </c>
       <c r="X6" s="2"/>
@@ -3854,7 +3856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -3900,13 +3902,13 @@
       <c r="S7" t="s">
         <v>190</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" t="s">
         <v>466</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="U7" t="s">
         <v>464</v>
       </c>
-      <c r="V7" s="29" t="s">
+      <c r="V7" t="s">
         <v>46</v>
       </c>
       <c r="X7" s="2"/>
@@ -3920,7 +3922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="20.25">
+    <row r="8" spans="1:44" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>279</v>
       </c>
@@ -3966,13 +3968,13 @@
       <c r="S8" t="s">
         <v>190</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="T8" t="s">
         <v>467</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="U8" t="s">
         <v>464</v>
       </c>
-      <c r="V8" s="29" t="s">
+      <c r="V8" t="s">
         <v>46</v>
       </c>
       <c r="X8" s="2"/>
@@ -3986,7 +3988,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>332</v>
       </c>
@@ -4032,13 +4034,13 @@
       <c r="S9" t="s">
         <v>190</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="T9" t="s">
         <v>468</v>
       </c>
-      <c r="U9" s="14" t="s">
+      <c r="U9" t="s">
         <v>464</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="V9" t="s">
         <v>46</v>
       </c>
       <c r="X9" s="2"/>
@@ -4052,7 +4054,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>332</v>
       </c>
@@ -4098,10 +4100,10 @@
       <c r="S10" t="s">
         <v>190</v>
       </c>
-      <c r="T10" s="14" t="s">
+      <c r="T10" t="s">
         <v>469</v>
       </c>
-      <c r="U10" s="14" t="s">
+      <c r="U10" t="s">
         <v>464</v>
       </c>
       <c r="V10" t="s">
@@ -4118,7 +4120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>332</v>
       </c>
@@ -4164,10 +4166,10 @@
       <c r="S11" t="s">
         <v>190</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="T11" t="s">
         <v>473</v>
       </c>
-      <c r="U11" s="14" t="s">
+      <c r="U11" t="s">
         <v>464</v>
       </c>
       <c r="V11" t="s">
@@ -4184,7 +4186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="X12" s="2"/>
@@ -4192,7 +4194,7 @@
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="X13" s="2"/>
@@ -4200,7 +4202,7 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="X14" s="2"/>
@@ -4208,7 +4210,7 @@
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="X15" s="2"/>
@@ -4216,7 +4218,7 @@
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="X16" s="2"/>
@@ -4224,7 +4226,7 @@
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
     </row>
-    <row r="17" spans="2:28">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="X17" s="2"/>
@@ -4232,7 +4234,7 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
     </row>
-    <row r="18" spans="2:28">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="X18" s="2"/>
@@ -4240,7 +4242,7 @@
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
     </row>
-    <row r="19" spans="2:28">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="X19" s="2"/>
@@ -4248,7 +4250,7 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
     </row>
-    <row r="20" spans="2:28">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="X20" s="2"/>
@@ -4256,7 +4258,7 @@
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
     </row>
-    <row r="21" spans="2:28">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="X21" s="2"/>
@@ -4264,7 +4266,7 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
     </row>
-    <row r="22" spans="2:28">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="X22" s="2"/>
@@ -4272,7 +4274,7 @@
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
     </row>
-    <row r="23" spans="2:28">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="X23" s="2"/>
@@ -4280,7 +4282,7 @@
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
     </row>
-    <row r="24" spans="2:28">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="X24" s="2"/>
@@ -4288,7 +4290,7 @@
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
     </row>
-    <row r="25" spans="2:28">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="X25" s="2"/>
@@ -4296,7 +4298,7 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
     </row>
-    <row r="26" spans="2:28">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="X26" s="2"/>
@@ -4304,7 +4306,7 @@
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
     </row>
-    <row r="27" spans="2:28">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="X27" s="2"/>
@@ -4312,7 +4314,7 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
     </row>
-    <row r="28" spans="2:28">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="X28" s="2"/>
@@ -4320,7 +4322,7 @@
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
     </row>
-    <row r="29" spans="2:28">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="X29" s="2"/>
@@ -4328,7 +4330,7 @@
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
     </row>
-    <row r="30" spans="2:28">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="X30" s="2"/>
@@ -4336,7 +4338,7 @@
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
     </row>
-    <row r="31" spans="2:28">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="X31" s="2"/>
@@ -4344,7 +4346,7 @@
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
     </row>
-    <row r="32" spans="2:28">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="X32" s="2"/>
@@ -4352,7 +4354,7 @@
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
     </row>
-    <row r="33" spans="2:28">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="X33" s="2"/>
@@ -4360,7 +4362,7 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
     </row>
-    <row r="34" spans="2:28">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="X34" s="2"/>
@@ -4368,7 +4370,7 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
     </row>
-    <row r="35" spans="2:28">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="X35" s="2"/>
@@ -4376,7 +4378,7 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
     </row>
-    <row r="36" spans="2:28">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="X36" s="2"/>
@@ -4430,40 +4432,40 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="13.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>277</v>
       </c>
       <c r="D1" t="s">
@@ -4530,14 +4532,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="16">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -4560,7 +4562,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4584,7 +4586,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4614,7 +4616,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4644,7 +4646,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -4671,7 +4673,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -4698,7 +4700,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24</v>
       </c>
@@ -4725,7 +4727,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -4755,7 +4757,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4782,7 +4784,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4809,7 +4811,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -4839,514 +4841,514 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="10:10">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="10:10">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="10:10">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="10:10">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="10:10">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="10:10">
+    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="10:10">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="10:10">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="10:10">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="10:10">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="10:10">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="10:10">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="10:10">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="10:10">
+    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="10:10">
+    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="10:10">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="10:10">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="10:10">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="10:10">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="10:10">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="10:10">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="10:10">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="10:10">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="10:10">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="10:10">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="10:10">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="10:10">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="10:10">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="10:10">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="10:10">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="10:10">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="10:10">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="10:10">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="10:10">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="10:10">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="10:10">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="10:10">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="10:10">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="10:10">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="10:10">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="10:10">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="10:10">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="10:10">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="10:10">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="10:10">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="10:10">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="10:10">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="10:10">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="10:10">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="10:10">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="10:10">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="10:10">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="10:10">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="10:10">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="10:10">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="10:10">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="10:10">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="10:10">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="10:10">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="10:10">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="10:10">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="10:10">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="10:10">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="10:10">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="10:10">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="10:10">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="10:10">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="10:10">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="10:10">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="10:10">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="10:10">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="10:10">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="10:10">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="10:10">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="10:10">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="10:10">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="10:10">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="10:10">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="10:10">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="10:10">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="10:10">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="10:10">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="10:10">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="10:10">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="10:10">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="10:10">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="10:10">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="10:10">
+    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="10:10">
+    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="10:10">
+    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="10:10">
+    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="10:10">
+    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="10:10">
+    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="10:10">
+    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="10:10">
+    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="10:10">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="10:10">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="10:10">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="10:10">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="10:10">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="10:10">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="10:10">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="10:10">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="10:10">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="10:10">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="10:10">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="10:10">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="10:10">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="10:10">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="10:10">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="10:10">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="10:10">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="10:10">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="10:10">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="10:10">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="10:10">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="10:10">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="10:10">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="10:10">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="10:10">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="10:10">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="10:10">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="10:10">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="10:10">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="10:10">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="10:10">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="10:10">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="10:10">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="10:10">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="10:10">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="10:10">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="10:10">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="10:10">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="10:10">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="10:10">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="10:10">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="10:10">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="10:10">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="10:10">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="10:10">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="10:10">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="10:10">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="10:10">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="10:10">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="10:10">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="10:10">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="10:10">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="10:10">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="10:10">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="10:10">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="10:10">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="10:10">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="10:10">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="10:10">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="10:10">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="10:10">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="10:10">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="10:10">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="10:10">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="10:10">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="10:10">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="10:10">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="10:10">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="10:10">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="10:10">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J182" s="2"/>
     </row>
   </sheetData>
@@ -5391,13 +5393,13 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -5411,7 +5413,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -5425,7 +5427,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -5439,7 +5441,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>68</v>
@@ -5451,7 +5453,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
@@ -5459,7 +5461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
@@ -5470,7 +5472,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
@@ -5481,7 +5483,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
@@ -5492,7 +5494,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
@@ -5500,7 +5502,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
@@ -5508,7 +5510,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>60</v>
       </c>
@@ -5516,7 +5518,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
@@ -5524,7 +5526,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -5532,7 +5534,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>62</v>
       </c>
@@ -5540,7 +5542,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>63</v>
       </c>
@@ -5548,7 +5550,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>64</v>
       </c>
@@ -5556,7 +5558,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
@@ -5578,24 +5580,24 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" t="s">
         <v>277</v>
       </c>
       <c r="D1" t="s">
@@ -5614,7 +5616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
+    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -5640,8 +5642,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="13">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>21</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -5666,14 +5668,14 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="13">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>7</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>278</v>
       </c>
       <c r="D4" t="s">
@@ -5692,14 +5694,14 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="13">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>7</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>278</v>
       </c>
       <c r="D5" t="s">
@@ -5718,175 +5720,175 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
@@ -5907,29 +5909,29 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" t="s">
         <v>277</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -5960,7 +5962,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -5998,14 +6000,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>275</v>
       </c>
       <c r="D3">
@@ -6036,14 +6038,14 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>278</v>
       </c>
       <c r="D4">
@@ -6055,10 +6057,10 @@
       <c r="F4" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <v>50000</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <v>50000</v>
       </c>
       <c r="I4" t="s">
@@ -6074,14 +6076,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>278</v>
       </c>
       <c r="D5">
@@ -6093,10 +6095,10 @@
       <c r="F5" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="17">
         <v>10000</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <v>10000</v>
       </c>
       <c r="I5" t="s">
@@ -6112,14 +6114,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>278</v>
       </c>
       <c r="D6">
@@ -6131,10 +6133,10 @@
       <c r="F6" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <v>31000</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>31000</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -6150,14 +6152,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>278</v>
       </c>
       <c r="D7">
@@ -6169,10 +6171,10 @@
       <c r="F7" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <v>50000</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <v>50000</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -6188,14 +6190,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>278</v>
       </c>
       <c r="D8">
@@ -6207,10 +6209,10 @@
       <c r="F8" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="18">
         <v>60000</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <v>60000</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -6226,14 +6228,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>278</v>
       </c>
       <c r="D9">
@@ -6245,10 +6247,10 @@
       <c r="F9" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="18">
         <v>30000</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <v>30000</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -6264,14 +6266,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>278</v>
       </c>
       <c r="D10">
@@ -6283,10 +6285,10 @@
       <c r="F10" t="s">
         <v>111</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="18">
         <v>39000</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <v>39000</v>
       </c>
       <c r="I10" s="2"/>
@@ -6297,14 +6299,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>278</v>
       </c>
       <c r="D11">
@@ -6316,10 +6318,10 @@
       <c r="F11" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="18">
         <v>50000</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="18">
         <v>50000</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -6335,14 +6337,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>278</v>
       </c>
       <c r="D12">
@@ -6373,135 +6375,135 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
@@ -6522,31 +6524,31 @@
       <selection activeCell="A15" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="31"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -6563,7 +6565,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -6580,7 +6582,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6600,7 +6602,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -6620,7 +6622,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -6640,7 +6642,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -6660,7 +6662,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6680,7 +6682,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6700,7 +6702,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -6717,7 +6719,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -6734,7 +6736,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -6751,7 +6753,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -6768,7 +6770,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -6785,99 +6787,99 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
@@ -6903,28 +6905,28 @@
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" t="s">
         <v>277</v>
       </c>
       <c r="D1" t="s">
@@ -6949,7 +6951,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -6963,11 +6965,11 @@
       <c r="I2" s="2"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="45.75">
+    <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
@@ -6985,18 +6987,18 @@
       <c r="G3" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45.75">
+    <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4">
@@ -7014,18 +7016,18 @@
       <c r="G4" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45.75">
+    <row r="5" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5">
@@ -7043,18 +7045,18 @@
       <c r="G5" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45.75">
+    <row r="6" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6">
@@ -7072,18 +7074,18 @@
       <c r="G6" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45.75">
+    <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7">
@@ -7101,18 +7103,18 @@
       <c r="G7" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45.75">
+    <row r="8" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8">
@@ -7130,18 +7132,18 @@
       <c r="G8" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45.75">
+    <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9">
@@ -7159,18 +7161,18 @@
       <c r="G9" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45.75">
+    <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10">
@@ -7188,18 +7190,18 @@
       <c r="G10" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45.75">
+    <row r="11" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11">
@@ -7217,18 +7219,18 @@
       <c r="G11" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45.75">
+    <row r="12" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12">
@@ -7246,18 +7248,18 @@
       <c r="G12" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45.75">
+    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13">
@@ -7275,18 +7277,18 @@
       <c r="G13" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45.75">
+    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14">
@@ -7304,18 +7306,18 @@
       <c r="G14" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45.75">
+    <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="1"/>
       <c r="C15">
         <v>1</v>
       </c>
@@ -7331,14 +7333,14 @@
       <c r="G15" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="20" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45.75">
+    <row r="16" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -7357,16 +7359,16 @@
       <c r="G16" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" ht="45.75">
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17">
@@ -7384,18 +7386,18 @@
       <c r="G17" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="20" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45.75">
+    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18">
@@ -7413,18 +7415,18 @@
       <c r="G18" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="20" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45.75">
+    <row r="19" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19">
@@ -7442,18 +7444,18 @@
       <c r="G19" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="45.75">
+    <row r="20" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20">
@@ -7471,18 +7473,18 @@
       <c r="G20" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="21" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45.75">
+    <row r="21" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21">
@@ -7500,18 +7502,18 @@
       <c r="G21" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="25" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="45.75">
+    <row r="22" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22">
@@ -7529,18 +7531,18 @@
       <c r="G22" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45.75">
+    <row r="23" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23">
@@ -7558,18 +7560,18 @@
       <c r="G23" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="45.75">
+    <row r="24" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24">
@@ -7587,18 +7589,18 @@
       <c r="G24" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="45.75">
+    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25">
@@ -7616,18 +7618,18 @@
       <c r="G25" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="45.75">
+    <row r="26" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26">
@@ -7645,18 +7647,18 @@
       <c r="G26" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="45.75">
+    <row r="27" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27">
@@ -7674,18 +7676,18 @@
       <c r="G27" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="45.75">
+    <row r="28" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28">
@@ -7703,18 +7705,18 @@
       <c r="G28" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="45.75">
+    <row r="29" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29">
@@ -7732,18 +7734,18 @@
       <c r="G29" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="45.75">
+    <row r="30" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30">
@@ -7761,18 +7763,18 @@
       <c r="G30" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="45.75">
+    <row r="31" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31">
@@ -7790,18 +7792,18 @@
       <c r="G31" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="J31" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="45.75">
+    <row r="32" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32">
@@ -7819,18 +7821,18 @@
       <c r="G32" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45.75">
+    <row r="33" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33">
@@ -7848,18 +7850,18 @@
       <c r="G33" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="J33" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45.75">
+    <row r="34" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34">
@@ -7877,18 +7879,18 @@
       <c r="G34" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="J34" s="22" t="s">
+      <c r="J34" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="45.75">
+    <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="1">
         <v>1</v>
       </c>
       <c r="C35">
@@ -7906,18 +7908,18 @@
       <c r="G35" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="45.75">
+    <row r="36" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36">
@@ -7935,18 +7937,18 @@
       <c r="G36" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="J36" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="45.75">
+    <row r="37" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="C37">
@@ -7964,18 +7966,18 @@
       <c r="G37" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="J37" s="22" t="s">
+      <c r="J37" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="45.75">
+    <row r="38" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="C38">
@@ -7993,10 +7995,10 @@
       <c r="G38" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="J38" s="22" t="s">
+      <c r="J38" s="20" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8017,29 +8019,29 @@
       <selection activeCell="A38" sqref="A38:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" t="s">
         <v>280</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -8055,7 +8057,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -8069,11 +8071,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
@@ -8096,11 +8098,11 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4">
@@ -8123,11 +8125,11 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5">
@@ -8150,11 +8152,11 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6">
@@ -8177,11 +8179,11 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7">
@@ -8204,11 +8206,11 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8">
@@ -8231,11 +8233,11 @@
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9">
@@ -8258,11 +8260,11 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10">
@@ -8285,11 +8287,11 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11">
@@ -8312,11 +8314,11 @@
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12">
@@ -8339,11 +8341,11 @@
       </c>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13">
@@ -8366,11 +8368,11 @@
       </c>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14">
@@ -8393,11 +8395,11 @@
       </c>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15">
@@ -8420,11 +8422,11 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16">
@@ -8444,11 +8446,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17">
@@ -8471,11 +8473,11 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18">
@@ -8498,11 +8500,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19">
@@ -8525,11 +8527,11 @@
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20">
@@ -8552,11 +8554,11 @@
       </c>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21">
@@ -8579,11 +8581,11 @@
       </c>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22">
@@ -8606,11 +8608,11 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23">
@@ -8633,11 +8635,11 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24">
@@ -8660,11 +8662,11 @@
       </c>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25">
@@ -8687,11 +8689,11 @@
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26">
@@ -8714,11 +8716,11 @@
       </c>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27">
@@ -8741,11 +8743,11 @@
       </c>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28">
@@ -8768,11 +8770,11 @@
       </c>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29">
@@ -8795,11 +8797,11 @@
       </c>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30">
@@ -8822,11 +8824,11 @@
       </c>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31">
@@ -8849,11 +8851,11 @@
       </c>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32">
@@ -8876,11 +8878,11 @@
       </c>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33">
@@ -8903,11 +8905,11 @@
       </c>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34">
@@ -8930,11 +8932,11 @@
       </c>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="1">
         <v>1</v>
       </c>
       <c r="C35">
@@ -8957,11 +8959,11 @@
       </c>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36">
@@ -8984,11 +8986,11 @@
       </c>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="C37">
@@ -9028,70 +9030,70 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" customWidth="1"/>
-    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="64.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="64.25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="31"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -9168,7 +9170,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="60">
+    <row r="3" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -9236,7 +9238,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="165">
+    <row r="4" spans="1:26" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -9298,7 +9300,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="105">
+    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -9330,7 +9332,7 @@
       <c r="L5" t="s">
         <v>151</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="13" t="s">
         <v>401</v>
       </c>
       <c r="N5" t="s">
@@ -9358,7 +9360,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -9369,7 +9371,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -9380,7 +9382,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -9391,7 +9393,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -9402,7 +9404,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -9413,7 +9415,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -9424,7 +9426,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -9435,7 +9437,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -9446,7 +9448,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -9457,7 +9459,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -9468,7 +9470,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -9479,7 +9481,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -9490,7 +9492,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -9501,7 +9503,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -9512,7 +9514,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -9523,7 +9525,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9534,7 +9536,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -9545,7 +9547,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9556,7 +9558,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -9567,7 +9569,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -9578,7 +9580,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -9589,7 +9591,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -9600,7 +9602,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -9611,7 +9613,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -9622,7 +9624,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -9633,7 +9635,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -9644,7 +9646,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -9655,7 +9657,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -9666,7 +9668,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -9677,7 +9679,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -9688,7 +9690,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -9699,7 +9701,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9710,7 +9712,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9721,7 +9723,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9732,7 +9734,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9743,7 +9745,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9754,7 +9756,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9765,7 +9767,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9813,28 +9815,28 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" t="s">
         <v>277</v>
       </c>
       <c r="D1" t="s">
@@ -9850,7 +9852,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -9870,11 +9872,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="13">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>21</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
@@ -9890,11 +9892,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="13">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="29">
         <v>1</v>
       </c>
       <c r="C4">
@@ -9936,27 +9938,27 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" t="s">
         <v>277</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -9969,7 +9971,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -9989,11 +9991,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>21</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
@@ -10009,11 +10011,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="29">
         <v>1</v>
       </c>
       <c r="C4">
@@ -10234,15 +10236,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
@@ -10253,14 +10246,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1FF103-8128-41B9-8505-C9142E224CFD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1FF103-8128-41B9-8505-C9142E224CFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
+    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85472914-12A9-442B-9065-D37C63210CBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393C43B1-36EF-42E9-B537-C459014BD9C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
+    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393C43B1-36EF-42E9-B537-C459014BD9C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85472914-12A9-442B-9065-D37C63210CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Raw Input Data/Tool_Input_Excel_v4 Batch 2_v2 (20250619).xlsx
+++ b/Raw Input Data/Tool_Input_Excel_v4 Batch 2_v2 (20250619).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfong/hase-scripts/Raw Input Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEB5ED9-82A2-426C-BC1E-3D47C2624FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A476DC-8D91-454C-8705-8D73C83C0A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCC_General" sheetId="1" r:id="rId1"/>
@@ -935,6 +935,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1554,7 +1555,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1602,6 +1603,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1619,6 +1621,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
@@ -1670,7 +1674,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
@@ -1722,6 +1726,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1731,10 +1739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2077,36 +2081,36 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.5" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="29"/>
       <c r="D1" t="s">
         <v>85</v>
       </c>
@@ -2114,8 +2118,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -2168,7 +2172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>290</v>
       </c>
@@ -2326,7 +2330,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>290</v>
       </c>
@@ -2409,17 +2413,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -2448,7 +2452,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2474,7 +2478,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>21</v>
       </c>
@@ -2500,11 +2504,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="27">
         <v>1</v>
       </c>
       <c r="C4">
@@ -2555,78 +2559,78 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="2"/>
+    <col min="1" max="1" width="10.6640625" style="2"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="115.5" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="76.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="27" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -2795,7 +2799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -2881,7 +2885,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>290</v>
       </c>
@@ -2967,7 +2971,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3047,7 +3051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -3133,156 +3137,156 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
@@ -3346,109 +3350,109 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="43.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3579,7 +3583,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -3647,7 +3651,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>278</v>
       </c>
@@ -3724,7 +3728,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -3790,7 +3794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3856,7 +3860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -3922,7 +3926,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>279</v>
       </c>
@@ -3988,7 +3992,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>332</v>
       </c>
@@ -4054,7 +4058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>332</v>
       </c>
@@ -4120,7 +4124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>332</v>
       </c>
@@ -4186,7 +4190,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="X12" s="2"/>
@@ -4194,7 +4198,7 @@
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="X13" s="2"/>
@@ -4202,7 +4206,7 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="X14" s="2"/>
@@ -4210,7 +4214,7 @@
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="X15" s="2"/>
@@ -4218,7 +4222,7 @@
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="X16" s="2"/>
@@ -4226,7 +4230,7 @@
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="X17" s="2"/>
@@ -4234,7 +4238,7 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="X18" s="2"/>
@@ -4242,7 +4246,7 @@
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="X19" s="2"/>
@@ -4250,7 +4254,7 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="X20" s="2"/>
@@ -4258,7 +4262,7 @@
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="X21" s="2"/>
@@ -4266,7 +4270,7 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="X22" s="2"/>
@@ -4274,7 +4278,7 @@
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="X23" s="2"/>
@@ -4282,7 +4286,7 @@
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="X24" s="2"/>
@@ -4290,7 +4294,7 @@
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="X25" s="2"/>
@@ -4298,7 +4302,7 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="X26" s="2"/>
@@ -4306,7 +4310,7 @@
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="X27" s="2"/>
@@ -4314,7 +4318,7 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="X28" s="2"/>
@@ -4322,7 +4326,7 @@
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="X29" s="2"/>
@@ -4330,7 +4334,7 @@
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="X30" s="2"/>
@@ -4338,7 +4342,7 @@
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="X31" s="2"/>
@@ -4346,7 +4350,7 @@
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="X32" s="2"/>
@@ -4354,7 +4358,7 @@
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="X33" s="2"/>
@@ -4362,7 +4366,7 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="X34" s="2"/>
@@ -4370,7 +4374,7 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="X35" s="2"/>
@@ -4378,7 +4382,7 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="X36" s="2"/>
@@ -4432,33 +4436,33 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="13.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -4532,7 +4536,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -4562,7 +4566,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4586,7 +4590,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4616,7 +4620,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4646,7 +4650,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>24</v>
       </c>
@@ -4673,7 +4677,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>24</v>
       </c>
@@ -4700,7 +4704,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>24</v>
       </c>
@@ -4727,7 +4731,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -4757,7 +4761,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4784,7 +4788,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4811,7 +4815,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -4841,514 +4845,514 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J182" s="2"/>
     </row>
   </sheetData>
@@ -5393,13 +5397,13 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -5413,7 +5417,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -5427,7 +5431,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -5441,7 +5445,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>68</v>
@@ -5453,7 +5457,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
@@ -5461,7 +5465,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
@@ -5472,7 +5476,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
@@ -5483,7 +5487,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
@@ -5494,7 +5498,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
@@ -5502,7 +5506,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>60</v>
       </c>
@@ -5518,7 +5522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
@@ -5526,7 +5530,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -5534,7 +5538,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>62</v>
       </c>
@@ -5542,7 +5546,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>63</v>
       </c>
@@ -5550,7 +5554,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>64</v>
       </c>
@@ -5558,7 +5562,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
@@ -5580,17 +5584,17 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="22.25" customWidth="1"/>
+    <col min="4" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -5616,7 +5620,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -5642,7 +5646,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>21</v>
       </c>
@@ -5668,7 +5672,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -5694,7 +5698,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -5720,175 +5724,175 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
@@ -5909,22 +5913,22 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -5962,7 +5966,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -6000,7 +6004,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>21</v>
       </c>
@@ -6038,7 +6042,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7</v>
       </c>
@@ -6114,7 +6118,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -6152,7 +6156,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -6190,7 +6194,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6228,7 +6232,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6266,7 +6270,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6299,7 +6303,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -6337,7 +6341,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -6375,135 +6379,135 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
@@ -6520,35 +6524,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD17"/>
+    <sheetView zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -6565,7 +6569,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>21</v>
       </c>
@@ -6582,7 +6586,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6602,7 +6606,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7</v>
       </c>
@@ -6622,7 +6626,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>24</v>
       </c>
@@ -6642,7 +6646,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>24</v>
       </c>
@@ -6662,7 +6666,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6682,7 +6686,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -6719,7 +6723,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -6736,7 +6740,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -6753,7 +6757,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -6787,99 +6791,99 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
@@ -6901,25 +6905,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="A11" zoomScale="119" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -6951,7 +6955,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -6965,7 +6969,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>21</v>
       </c>
@@ -6994,7 +6998,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>21</v>
       </c>
@@ -7023,7 +7027,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>21</v>
       </c>
@@ -7052,7 +7056,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21</v>
       </c>
@@ -7081,7 +7085,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21</v>
       </c>
@@ -7110,7 +7114,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>21</v>
       </c>
@@ -7139,7 +7143,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>21</v>
       </c>
@@ -7168,7 +7172,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21</v>
       </c>
@@ -7197,7 +7201,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>21</v>
       </c>
@@ -7226,7 +7230,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>21</v>
       </c>
@@ -7255,7 +7259,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>21</v>
       </c>
@@ -7284,7 +7288,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>21</v>
       </c>
@@ -7313,7 +7317,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7340,7 +7344,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7</v>
       </c>
@@ -7364,7 +7368,7 @@
       </c>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>24</v>
       </c>
@@ -7393,7 +7397,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>24</v>
       </c>
@@ -7422,7 +7426,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>24</v>
       </c>
@@ -7451,7 +7455,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -7480,7 +7484,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -7509,7 +7513,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -7538,7 +7542,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -7567,7 +7571,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -7596,7 +7600,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -7625,7 +7629,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -7654,7 +7658,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -7683,7 +7687,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -7712,7 +7716,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -7741,7 +7745,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -7770,7 +7774,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -7799,7 +7803,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -7828,7 +7832,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -7857,7 +7861,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -7886,7 +7890,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5</v>
       </c>
@@ -7915,7 +7919,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -7944,7 +7948,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5</v>
       </c>
@@ -7973,7 +7977,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -8015,23 +8019,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD47"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A14" sqref="A3:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -8057,7 +8061,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -8071,7 +8075,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>21</v>
       </c>
@@ -8098,7 +8102,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>21</v>
       </c>
@@ -8125,7 +8129,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>21</v>
       </c>
@@ -8152,7 +8156,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21</v>
       </c>
@@ -8179,7 +8183,7 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21</v>
       </c>
@@ -8206,7 +8210,7 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>21</v>
       </c>
@@ -8233,7 +8237,7 @@
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>21</v>
       </c>
@@ -8260,7 +8264,7 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21</v>
       </c>
@@ -8287,7 +8291,7 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>21</v>
       </c>
@@ -8314,7 +8318,7 @@
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>21</v>
       </c>
@@ -8341,7 +8345,7 @@
       </c>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>21</v>
       </c>
@@ -8368,7 +8372,7 @@
       </c>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>21</v>
       </c>
@@ -8395,7 +8399,7 @@
       </c>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -8422,7 +8426,7 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7</v>
       </c>
@@ -8446,7 +8450,7 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>24</v>
       </c>
@@ -8473,7 +8477,7 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>24</v>
       </c>
@@ -8500,7 +8504,7 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>24</v>
       </c>
@@ -8527,7 +8531,7 @@
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -8554,7 +8558,7 @@
       </c>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8581,7 +8585,7 @@
       </c>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -8608,7 +8612,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -8635,7 +8639,7 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -8662,7 +8666,7 @@
       </c>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -8689,7 +8693,7 @@
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -8716,7 +8720,7 @@
       </c>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -8743,7 +8747,7 @@
       </c>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -8770,7 +8774,7 @@
       </c>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -8797,7 +8801,7 @@
       </c>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -8824,7 +8828,7 @@
       </c>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -8851,7 +8855,7 @@
       </c>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -8878,7 +8882,7 @@
       </c>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -8905,7 +8909,7 @@
       </c>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -8932,7 +8936,7 @@
       </c>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5</v>
       </c>
@@ -8959,7 +8963,7 @@
       </c>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -8986,7 +8990,7 @@
       </c>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5</v>
       </c>
@@ -9030,70 +9034,70 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="16" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="64.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="64.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -9170,7 +9174,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -9238,7 +9242,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="176" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -9300,7 +9304,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -9360,7 +9364,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -9371,7 +9375,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -9382,7 +9386,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -9393,7 +9397,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -9404,7 +9408,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -9415,7 +9419,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -9426,7 +9430,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -9437,7 +9441,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -9448,7 +9452,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -9459,7 +9463,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -9470,7 +9474,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -9481,7 +9485,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -9492,7 +9496,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -9503,7 +9507,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -9514,7 +9518,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -9525,7 +9529,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9536,7 +9540,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -9547,7 +9551,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9558,7 +9562,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -9569,7 +9573,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -9580,7 +9584,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -9591,7 +9595,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -9602,7 +9606,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -9613,7 +9617,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -9624,7 +9628,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -9635,7 +9639,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -9646,7 +9650,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -9657,7 +9661,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -9668,7 +9672,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -9679,7 +9683,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -9690,7 +9694,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -9701,7 +9705,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9712,7 +9716,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9723,7 +9727,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9734,7 +9738,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9745,7 +9749,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9756,7 +9760,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9767,7 +9771,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9818,18 +9822,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -9852,7 +9856,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -9872,7 +9876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>21</v>
       </c>
@@ -9892,11 +9896,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <v>1</v>
       </c>
       <c r="C4">
@@ -9941,17 +9945,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -9971,7 +9975,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -9991,7 +9995,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>21</v>
       </c>
@@ -10011,11 +10015,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <v>1</v>
       </c>
       <c r="C4">
@@ -10041,6 +10045,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fc14db02-3d39-436b-9056-63d1dbe054e8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A8F4FDE63F23240996C0B5ED71CAB02" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61b2ee7a38442529347de99e33b69841">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fc14db02-3d39-436b-9056-63d1dbe054e8" xmlns:ns3="5ed3fcfa-dd51-4f96-90c6-6669337cd654" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="405649729e347460199c909c216f19f3" ns2:_="" ns3:_="">
     <xsd:import namespace="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
@@ -10235,17 +10250,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fc14db02-3d39-436b-9056-63d1dbe054e8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10256,6 +10260,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393C43B1-36EF-42E9-B537-C459014BD9C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
+    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1FF103-8128-41B9-8505-C9142E224CFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10274,17 +10289,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393C43B1-36EF-42E9-B537-C459014BD9C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
-    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85472914-12A9-442B-9065-D37C63210CBF}">
   <ds:schemaRefs>

--- a/Raw Input Data/Tool_Input_Excel_v4 Batch 2_v2 (20250619).xlsx
+++ b/Raw Input Data/Tool_Input_Excel_v4 Batch 2_v2 (20250619).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfong/hase-scripts/Raw Input Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A476DC-8D91-454C-8705-8D73C83C0A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1293F57-2500-4B28-9513-25CA902A7974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCC_General" sheetId="1" r:id="rId1"/>
@@ -935,7 +935,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1465,23 +1464,48 @@
     <t>PAYMENT DETAILS ACCOUNT NAME: MR CHAN TAI MAN  ACCOUNT NUMBER:111-111111-101  REMITING BANK ADVISED FRAUD REMITTING BANK'S CABLE :20:HK■■■■■■■■■■-000132 :21:HC124B2■■■■■■■■■■ :79:RE OUR FPS PAYMENT DATED 29NOV24 FPS REF NO. FRN■■■■■■■■■■PAYD01020■■■■■■■■■■ FOR HKD100,000.00 PLS ADVISED THAT OUR CUSTOMER CLAIMED THAT THE ABOVE PAYMENT IS SUSPECT A FRAUD PAYMENT. PLEASE URGENTLY ARRANGE TO CANCEL ABOVE PAYMENT AND RETURN PROCEEDS TO US VIA CHATS QUOTING OUR REF HK124■■■■■■■■■■-■■■■■■■■■■ UNDER SWIFT CONFIRMATION TO US. PLS IMMEDIATELY HOLD ENOUGH FUNDS IN BNF'S A/C TILL REC'D THEIR D/A FOR REFUND AND REPORT CASE TO YR SECURITY DEPARTMENT. IN REPLY, PLS QUOTE OUR REF HK1241204-■■■■■■■■■■ IN FIELD 21 OF YR SWIFT. REGARDS PAYMENT ORDER DTL DDEBIT PAYD01 DDTOPU FRN■■■■■■■■■■PAYD■■■■■■■■■■ HD124B2■■■■■■■■■■ 024/SDDA202411■■■■■■■■■■ 24 CHAN TAI MAN 111-111111-101  BBAN 4 CHAN TAI MAN 333-333333-101 BBAN HKD 100000 ACSC 11/29/2024 13:00 68777■■■■ MQH HD124B295■■■■ D 0.28 N</t>
   </si>
   <si>
+    <t>PAYMENT DETAILS ACCOUNT NAME: MR CHAN TAI MAN ACCOUNT NUMBER:111-111111-101  REMITING BANK ADVISED FRAUD REMITTING BANK'S CABLE :20:HK124■■■■■-■■■■■■■■■■  :21:HC124B■■■■■■■■■■  :79:RE OUR FPS PAYMENT DATED 12NOV24 FOR HKD25,500.00 FPS REF NO. FRN■■■■■■■■■■ PAYD01020■■■■■■■■■■  PLS BE ADVISED THAT THE FUND IS SUSPECTED TO BE FROM FRAUDULENT SOURCE. PLEASE URGENTLY ARRANGE TO CANCEL PARTIAL AMOUNT HKD25,381.00 AND RETURN PROCEEDS TO US VIA CHATS QUOTING OUR REF HK1241115-■■■■■■■■■■  UNDER SWIFT CONFIRMATION TO US. PLS IMMEDIATELY HOLD ENOUGH FUNDS IN BNF'S A/C TILL REC'D THEIR D/A FOR REFUND AND REPORT CASE TO YR SECURITY DEPARTMENT. IN REPLY, PLS QUOTE OUR REF HK1241115-■■■■■■■■■■  IN FIELD 21 OF YOUR SWF MSG REGARDS PAYMENT ORDER DTL DDEBIT PAYD01 DDTOPU FRN20241112PAYD010■■■■■■■■■■  HD124B■■■■■■■■■■  024/SDDA20241111■■■■■■■■■■ 24 MR CHAN TAI MAN 111-111111-101  BBAN 4 CHAN TAI MAN 333-333333-101 BBAN HKD 25500 ACSC 11/12/2024 16:20 677■■■■ MQH HD124B■■■■■■■■■■ D 0.304 N</t>
+  </si>
+  <si>
+    <t>{1:F01HASEHK■■■■■■■■■■}{2:O199■■■■■■■■■■HSBCHKHHXXXX000000■■■■■■■■■■}{3:{108:24355■■■■■■■■■■}}{4: :20:HK124■■■■■■■■■■ :21:HC124B■■■■■■■■■■ :79:RE OUR FPS PAYMENT DATED 12NOV2024 FOR HKD77,000.00 FPS REF NO. FRN■■■■■■■■■■PAYD01020■■■■■■■■■■ PLS BE ADVISED THAT THE FUND IS SUSPECTED TO BE FROM FRAUDULENT SOURCE. PLEASE URGENTLY ARRANGE TO CANCEL PARTIAL AMOUNT HKD20,000.00 AND RETURN PROCEEDS TO US VIA CHATS QUOTING OUR REF HK124■■■■■■■■■■-■■■■■■■■■■ UNDER SWIFT CONFIRMATION TO US. PLS IMMEDIATELY HOLD ENOUGH FUNDS IN BNF'S A/C TILL REC'D THEIR D/A FOR REFUND AND REPORT CASE TO YR SECURITY DEPARTMENT. IN REPLY, PLS QUOTE OUR REF HK124■■■■■■■■■■-000■■■■■■■■■■ IN FIELD 21 OF YOUR SWF MSG REGARDS -}{5:{CHK:000000000000}} DTL DDEBIT PAYD01 DDTOPU FRN2024■■■■■■■■■■PAYD010■■■■■■■■■■ HD124B■■■■■■■■■■ 024/SDDA20241111■■■■■■■■■■ 24 CHAN TAI MAN 111-111111-101  BBAN 4 CHAN TAI MAN 333-333333-101 BBAN HKD 77000 ACSC 2024/11/12 11:02 ■■■■■■■■ MQH HD124B1■■■■■■■■ D 0.315 N</t>
+  </si>
+  <si>
+    <t>HSBC 666-66666-602</t>
+  </si>
+  <si>
+    <t>C2403</t>
+  </si>
+  <si>
+    <t>C2405</t>
+  </si>
+  <si>
+    <t>Related details: account number: 111-111111-101  account name: MR CHAN TAI MAN Payment order: DTL DDEBIT PAYD01 DDTOPU FRN2024■■■■■■■■■■PAYD01020■■■■■■■■■■ HD124B■■■■■■■■■■ 024/SDDA20241111■■■■■■■■■■ 24CHAN TAI MAN 111-111111-101  BBAN 4 CHAN TAI MAN 333-333333-101 BBAN HKD 19990 ACSC 11/11/2024 15:58 676■■■■■■■ MQH HD124B110■■■■■■■ D 0.29 N Remitting bank cable: The below cable message from HSBCH■■■: :20:HK124■■■■■■■-■■■■■■■ :21:HC124B110■■■■■■■ :79:RE OUR FPS PAYMENT DATED 11NOV24 FOR HKD19,990.00 FPS REF NO. FRN■■■■■■■PAYD010■■■■■■■ PLS BE ADVISED THAT THE FUND IS FROM FRAUDULENT SOURCE. PLEASE URGENTLY ARRANGE TO CANCEL ABOVE PAYMENT AND RETURN PROCEEDS TO US VIA CHATS QUOTING OUR REF HK124■■■■■■■-000■■■■■■■ UNDER SWIFT CONFIRMATION TO US. PLS IMMEDIATELY HOLD ENOUGH FUNDS IN BNF'S A/C TILL REC'D THEIR D/A FOR REFUND AND REPORT CASE TO YR SECURITY DEPARTMENT. IN REPLY, PLS QUOTE OUR REF HK124■■■■■■■-■■■■■■■ IN FIELD 21 OF YOUR SWF MSG REGARDS -}</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>RMBK REPORT FRAUD REMITTER NAME/ACCT: YEUNG KAI / 666-66666-601  BEN NAME/ACCT: CHAN TAI MAN / 111-111111-101  CABLE: {1:F01HASEHKHH■■■■■■■■■■}{2:O1992025241205S■■■■■■■■■■2104441071■■■■■■■■■■}{3:{108:HKPA■■■■■■■■■■}}{4: :20:HKP2■■■■■■■■■■ :21:FRN2024■■■■■■■■■■ :79:REQUEST OF FRAUD PAYMENT WE RECEIVED A REQUEST FROM OUR CUSTOMER ON 02 DEC 2024 REGARDING A CASE OF PAYMENT FUNDS TO YOUR INSTITUTION AS FOLLOWS: TRANSACTION DATE: (DD/MM/YYYY)29/11/2024 A/C NUMBER OF OUR CUSTOMER (THE TRANSFEROR): 666-66666-601 CREDIT PARTICIPANT:024 A/C NUMBER OF THE TRANSFEREE:111-111111-101  AMOUNT OF THE TRANSACTION:HKD 100000.00 REFERENCE:FRN20241129■■■■■■■■■■ END TO END REF:0000000-0000-0000-2411-■■■■■■■■■■ PLEASE EFFECT THE ABOVE REFUND VIA RTGS TO BELOW: BANK NAME:STANDARD CHARTERED BANK HK LTD BANK CODE AND A/C NO.:■■■-■■■■■■■■■■REFERENCE:FRN20241129PAY■■■■■■■■■■ SQ/JC CONTACT:EIOTEAM ATTN: MS CHAN TEL:3843 ■■■■ ACCORDING TO HKAB HANDLING PROCEDURES, PLEASE REPLY US ON OR BEFORE 20 DEC 2024 PLEASE WAIVE ALL RELEVANT CHARGES. FOR ANY FUTURE CORRESPONDENCE RELATED TO THIS CASE PLEASE QUOTE OUR ENQUIRY REFERENCE HKP241203-■■■■■. REGARDS CLIENT SERVICES STANDARD CHARTERED BANK LTD, P/O: 111-111111-101 HKD 241129 14:37:25 HD124B■■■■■■ FRN20241129PAY■■■■■■ HKD 100,000.00 C01 Y CXPSNL ACCEPT E2E ID 0000000-0000-0000-2411-■■■■■■ TRAN ID SCPb677af6ac9cd■■■■■■ HKD 0.00 DR 003 BBAN 359197■■■■■■ HKD 100,000.00 CR 024 BBAN 111-111111-101 LOB RBWM SENDER NAME YEUNG KAI BENE.NAME CHAN TAI MAN CUSTOMER TYPE: CORPORATE TYPE : RISK LEVEL : ADDRESSING OPTION 1 : ADDRESSING SUB-OPTION 1 : ADDRESSING SUB-OPTION 2 : ADDRESSING OPTION 2 : ADDRESSING SUB-OPTION 1 : ADDRESSING SUB-OPTION 2 : REMITTANCE INFO ICT INSTR MSG 241129 14:37:25 ACCP STATUS PRT MSG 241129 14:37:25 ACSC</t>
+  </si>
+  <si>
+    <t>Kestrel</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
     <r>
-      <t>The below cable message from HSBCHKHH :20:HK1240711-■■■■■■■■■■ :21:HC1247■■■■■■■■■■ :79:RE OUR FPS PAYMENT DATED 10 JUL 2024 FOR HKD 1.00 FPS REF NO. FRN■■■■■■■■■■PAYC0101■■■■■■■■■■ PLS ADVD THAT OUR CM CLAIMED THAT THE ABV PYMT IS SUSPECT A FRAUD PYMT. PLEASE URGENTLY ARRANGE TO CANCEL ABOVE PAYMENT AND RETURN PROCEEDS TO US VIA CHATS QUOTING OUR REF HK1240711-■■■■■■■■■■ UNDER SWIFT CONFIRMATION TO US. PLS IMMEDIATELY HOLD ENOUGH FUNDS IN BNF'S A/C TILL REC'D THEIR D/A FOR REFUND AND REPORT CASE TO YR SECURITY DEPARTMENT. IN REPLY, PLS QUOTE OUR REF HK1240711-■■■■■■■■■■ IN FIELD 21 OF YOUR SWF MSG REGARDS PYMT DETAILS: 111-111111-101  HKD 240710 20:25:49 HD1247■■■■■■■ FRN20240710PAY■■■■■■■ HKD 1.00 C01 Y CXPSNL ACCEPT E2E ID NOTPROVIDED TRAN ID HC124710■■■■■■■ HKD 0.00 DR 004 BBAN 01211■■■■■■■HKD 1.00 CR 024 BBAN 111-111111-101  LOB RBWM SENDER NAME MISS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> YEUNG KA</t>
+      <t>The below cable message from HSBCHKHH :20:HK1240711-■■■■■■■■■■ :21:HC1247■■■■■■■■■■ :79:RE OUR FPS PAYMENT DATED 10 JUL 2024 FOR HKD 1.00 FPS REF NO. FRN■■■■■■■■■■PAYC0101■■■■■■■■■■ PLS ADVD THAT OUR CM CLAIMED THAT THE ABV PYMT IS SUSPECT A FRAUD PYMT. PLEASE URGENTLY ARRANGE TO CANCEL ABOVE PAYMENT AND RETURN PROCEEDS TO US VIA CHATS QUOTING OUR REF HK1240711-■■■■■■■■■■ UNDER SWIFT CONFIRMATION TO US. PLS IMMEDIATELY HOLD ENOUGH FUNDS IN BNF'S A/C TILL REC'D THEIR D/A FOR REFUND AND REPORT CASE TO YR SECURITY DEPARTMENT. IN REPLY, PLS QUOTE OUR REF HK1240711-■■■■■■■■■■ IN FIELD 21 OF YOUR SWF MSG REGARDS PYMT DETAILS: 111-111111-101  HKD 240710 20:25:49 HD1247■■■■■■■ FRN20240710PAY■■■■■■■ HKD 1.00 C01 Y CXPSNL ACCEPT E2E ID NOTPROVIDED TRAN ID HC124710■■■■■■■ HKD 0.00 DR 004 BBAN 01211■■■■■■■HKD 1.00 CR 024 BBAN 111-111111-101  LOB RBWM SENDER NAME MISS YEUNG KA</t>
     </r>
     <r>
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>I</t>
@@ -1494,60 +1518,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> BENE.NAME </t>
+      <t xml:space="preserve"> BENE.NAME CHAN TAI MAN CUSTOMER TYPE: CORPORATE TYPE : RISK LEVEL : ADDRESSING OPTION 1 : ADDRESSING SUB-OPTION 1 : ADDRESSING SUB-OPTION 2 : ADDRESSING OPTION 2 : ADDRESSING SUB-OPTION 1 : ADDRESSING SUB-OPTION 2 : REMITTANCE INFO ICT INSTR MSG 240710 20:25:49 ACCP STATUS PRT MSG 240710 20:25:50 ACSC</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CHAN TAI MAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CUSTOMER TYPE: CORPORATE TYPE : RISK LEVEL : ADDRESSING OPTION 1 : ADDRESSING SUB-OPTION 1 : ADDRESSING SUB-OPTION 2 : ADDRESSING OPTION 2 : ADDRESSING SUB-OPTION 1 : ADDRESSING SUB-OPTION 2 : REMITTANCE INFO ICT INSTR MSG 240710 20:25:49 ACCP STATUS PRT MSG 240710 20:25:50 ACSC</t>
-    </r>
-  </si>
-  <si>
-    <t>PAYMENT DETAILS ACCOUNT NAME: MR CHAN TAI MAN ACCOUNT NUMBER:111-111111-101  REMITING BANK ADVISED FRAUD REMITTING BANK'S CABLE :20:HK124■■■■■-■■■■■■■■■■  :21:HC124B■■■■■■■■■■  :79:RE OUR FPS PAYMENT DATED 12NOV24 FOR HKD25,500.00 FPS REF NO. FRN■■■■■■■■■■ PAYD01020■■■■■■■■■■  PLS BE ADVISED THAT THE FUND IS SUSPECTED TO BE FROM FRAUDULENT SOURCE. PLEASE URGENTLY ARRANGE TO CANCEL PARTIAL AMOUNT HKD25,381.00 AND RETURN PROCEEDS TO US VIA CHATS QUOTING OUR REF HK1241115-■■■■■■■■■■  UNDER SWIFT CONFIRMATION TO US. PLS IMMEDIATELY HOLD ENOUGH FUNDS IN BNF'S A/C TILL REC'D THEIR D/A FOR REFUND AND REPORT CASE TO YR SECURITY DEPARTMENT. IN REPLY, PLS QUOTE OUR REF HK1241115-■■■■■■■■■■  IN FIELD 21 OF YOUR SWF MSG REGARDS PAYMENT ORDER DTL DDEBIT PAYD01 DDTOPU FRN20241112PAYD010■■■■■■■■■■  HD124B■■■■■■■■■■  024/SDDA20241111■■■■■■■■■■ 24 MR CHAN TAI MAN 111-111111-101  BBAN 4 CHAN TAI MAN 333-333333-101 BBAN HKD 25500 ACSC 11/12/2024 16:20 677■■■■ MQH HD124B■■■■■■■■■■ D 0.304 N</t>
-  </si>
-  <si>
-    <t>{1:F01HASEHK■■■■■■■■■■}{2:O199■■■■■■■■■■HSBCHKHHXXXX000000■■■■■■■■■■}{3:{108:24355■■■■■■■■■■}}{4: :20:HK124■■■■■■■■■■ :21:HC124B■■■■■■■■■■ :79:RE OUR FPS PAYMENT DATED 12NOV2024 FOR HKD77,000.00 FPS REF NO. FRN■■■■■■■■■■PAYD01020■■■■■■■■■■ PLS BE ADVISED THAT THE FUND IS SUSPECTED TO BE FROM FRAUDULENT SOURCE. PLEASE URGENTLY ARRANGE TO CANCEL PARTIAL AMOUNT HKD20,000.00 AND RETURN PROCEEDS TO US VIA CHATS QUOTING OUR REF HK124■■■■■■■■■■-■■■■■■■■■■ UNDER SWIFT CONFIRMATION TO US. PLS IMMEDIATELY HOLD ENOUGH FUNDS IN BNF'S A/C TILL REC'D THEIR D/A FOR REFUND AND REPORT CASE TO YR SECURITY DEPARTMENT. IN REPLY, PLS QUOTE OUR REF HK124■■■■■■■■■■-000■■■■■■■■■■ IN FIELD 21 OF YOUR SWF MSG REGARDS -}{5:{CHK:000000000000}} DTL DDEBIT PAYD01 DDTOPU FRN2024■■■■■■■■■■PAYD010■■■■■■■■■■ HD124B■■■■■■■■■■ 024/SDDA20241111■■■■■■■■■■ 24 CHAN TAI MAN 111-111111-101  BBAN 4 CHAN TAI MAN 333-333333-101 BBAN HKD 77000 ACSC 2024/11/12 11:02 ■■■■■■■■ MQH HD124B1■■■■■■■■ D 0.315 N</t>
-  </si>
-  <si>
-    <t>HSBC 666-66666-602</t>
-  </si>
-  <si>
-    <t>C2403</t>
-  </si>
-  <si>
-    <t>C2405</t>
-  </si>
-  <si>
-    <t>Related details: account number: 111-111111-101  account name: MR CHAN TAI MAN Payment order: DTL DDEBIT PAYD01 DDTOPU FRN2024■■■■■■■■■■PAYD01020■■■■■■■■■■ HD124B■■■■■■■■■■ 024/SDDA20241111■■■■■■■■■■ 24CHAN TAI MAN 111-111111-101  BBAN 4 CHAN TAI MAN 333-333333-101 BBAN HKD 19990 ACSC 11/11/2024 15:58 676■■■■■■■ MQH HD124B110■■■■■■■ D 0.29 N Remitting bank cable: The below cable message from HSBCH■■■: :20:HK124■■■■■■■-■■■■■■■ :21:HC124B110■■■■■■■ :79:RE OUR FPS PAYMENT DATED 11NOV24 FOR HKD19,990.00 FPS REF NO. FRN■■■■■■■PAYD010■■■■■■■ PLS BE ADVISED THAT THE FUND IS FROM FRAUDULENT SOURCE. PLEASE URGENTLY ARRANGE TO CANCEL ABOVE PAYMENT AND RETURN PROCEEDS TO US VIA CHATS QUOTING OUR REF HK124■■■■■■■-000■■■■■■■ UNDER SWIFT CONFIRMATION TO US. PLS IMMEDIATELY HOLD ENOUGH FUNDS IN BNF'S A/C TILL REC'D THEIR D/A FOR REFUND AND REPORT CASE TO YR SECURITY DEPARTMENT. IN REPLY, PLS QUOTE OUR REF HK124■■■■■■■-■■■■■■■ IN FIELD 21 OF YOUR SWF MSG REGARDS -}</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>RMBK REPORT FRAUD REMITTER NAME/ACCT: YEUNG KAI / 666-66666-601  BEN NAME/ACCT: CHAN TAI MAN / 111-111111-101  CABLE: {1:F01HASEHKHH■■■■■■■■■■}{2:O1992025241205S■■■■■■■■■■2104441071■■■■■■■■■■}{3:{108:HKPA■■■■■■■■■■}}{4: :20:HKP2■■■■■■■■■■ :21:FRN2024■■■■■■■■■■ :79:REQUEST OF FRAUD PAYMENT WE RECEIVED A REQUEST FROM OUR CUSTOMER ON 02 DEC 2024 REGARDING A CASE OF PAYMENT FUNDS TO YOUR INSTITUTION AS FOLLOWS: TRANSACTION DATE: (DD/MM/YYYY)29/11/2024 A/C NUMBER OF OUR CUSTOMER (THE TRANSFEROR): 666-66666-601 CREDIT PARTICIPANT:024 A/C NUMBER OF THE TRANSFEREE:111-111111-101  AMOUNT OF THE TRANSACTION:HKD 100000.00 REFERENCE:FRN20241129■■■■■■■■■■ END TO END REF:0000000-0000-0000-2411-■■■■■■■■■■ PLEASE EFFECT THE ABOVE REFUND VIA RTGS TO BELOW: BANK NAME:STANDARD CHARTERED BANK HK LTD BANK CODE AND A/C NO.:■■■-■■■■■■■■■■REFERENCE:FRN20241129PAY■■■■■■■■■■ SQ/JC CONTACT:EIOTEAM ATTN: MS CHAN TEL:3843 ■■■■ ACCORDING TO HKAB HANDLING PROCEDURES, PLEASE REPLY US ON OR BEFORE 20 DEC 2024 PLEASE WAIVE ALL RELEVANT CHARGES. FOR ANY FUTURE CORRESPONDENCE RELATED TO THIS CASE PLEASE QUOTE OUR ENQUIRY REFERENCE HKP241203-■■■■■. REGARDS CLIENT SERVICES STANDARD CHARTERED BANK LTD, P/O: 111-111111-101 HKD 241129 14:37:25 HD124B■■■■■■ FRN20241129PAY■■■■■■ HKD 100,000.00 C01 Y CXPSNL ACCEPT E2E ID 0000000-0000-0000-2411-■■■■■■ TRAN ID SCPb677af6ac9cd■■■■■■ HKD 0.00 DR 003 BBAN 359197■■■■■■ HKD 100,000.00 CR 024 BBAN 111-111111-101 LOB RBWM SENDER NAME YEUNG KAI BENE.NAME CHAN TAI MAN CUSTOMER TYPE: CORPORATE TYPE : RISK LEVEL : ADDRESSING OPTION 1 : ADDRESSING SUB-OPTION 1 : ADDRESSING SUB-OPTION 2 : ADDRESSING OPTION 2 : ADDRESSING SUB-OPTION 1 : ADDRESSING SUB-OPTION 2 : REMITTANCE INFO ICT INSTR MSG 241129 14:37:25 ACCP STATUS PRT MSG 241129 14:37:25 ACSC</t>
-  </si>
-  <si>
-    <t>Kestrel</t>
-  </si>
-  <si>
-    <t>UNKNOWN</t>
   </si>
 </sst>
 </file>
@@ -1555,9 +1527,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1603,7 +1575,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1628,12 +1599,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1674,7 +1640,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
@@ -2081,29 +2047,29 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.5" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
@@ -2118,7 +2084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -2172,7 +2138,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -2224,7 +2190,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -2277,7 +2243,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>290</v>
       </c>
@@ -2330,7 +2296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>290</v>
       </c>
@@ -2417,13 +2383,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -2452,7 +2418,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2478,7 +2444,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -2504,7 +2470,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2559,39 +2525,39 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="2"/>
+    <col min="1" max="1" width="10.625" style="2"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="115.5" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="76.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="76.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
@@ -2629,7 +2595,7 @@
       <c r="AA1" s="29"/>
       <c r="AB1" s="29"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -2713,7 +2679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -2799,7 +2765,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -2864,7 +2830,7 @@
         <v>2025</v>
       </c>
       <c r="V4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="W4" t="s">
         <v>51</v>
@@ -2885,7 +2851,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>290</v>
       </c>
@@ -2950,7 +2916,7 @@
         <v>2024</v>
       </c>
       <c r="V5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="W5" t="s">
         <v>51</v>
@@ -2971,7 +2937,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3033,7 +2999,7 @@
         <v>2025</v>
       </c>
       <c r="V6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W6" t="s">
         <v>51</v>
@@ -3051,7 +3017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -3116,7 +3082,7 @@
         <v>2024</v>
       </c>
       <c r="V7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="W7" t="s">
         <v>51</v>
@@ -3137,156 +3103,156 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
@@ -3346,56 +3312,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AR36"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="43.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.125" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
@@ -3451,7 +3417,7 @@
       <c r="AQ1" s="29"/>
       <c r="AR1" s="29"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -3583,7 +3549,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -3651,7 +3617,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>278</v>
       </c>
@@ -3728,7 +3694,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -3775,7 +3741,7 @@
         <v>190</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U5" t="s">
         <v>464</v>
@@ -3794,7 +3760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3860,7 +3826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -3926,7 +3892,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>279</v>
       </c>
@@ -3973,7 +3939,7 @@
         <v>190</v>
       </c>
       <c r="T8" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="U8" t="s">
         <v>464</v>
@@ -3992,7 +3958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>332</v>
       </c>
@@ -4039,7 +4005,7 @@
         <v>190</v>
       </c>
       <c r="T9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U9" t="s">
         <v>464</v>
@@ -4058,7 +4024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>332</v>
       </c>
@@ -4105,7 +4071,7 @@
         <v>190</v>
       </c>
       <c r="T10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U10" t="s">
         <v>464</v>
@@ -4124,7 +4090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>332</v>
       </c>
@@ -4171,7 +4137,7 @@
         <v>190</v>
       </c>
       <c r="T11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U11" t="s">
         <v>464</v>
@@ -4190,7 +4156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="X12" s="2"/>
@@ -4198,7 +4164,7 @@
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="X13" s="2"/>
@@ -4206,7 +4172,7 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="X14" s="2"/>
@@ -4214,7 +4180,7 @@
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="X15" s="2"/>
@@ -4222,7 +4188,7 @@
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="X16" s="2"/>
@@ -4230,7 +4196,7 @@
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="X17" s="2"/>
@@ -4238,7 +4204,7 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="X18" s="2"/>
@@ -4246,7 +4212,7 @@
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="X19" s="2"/>
@@ -4254,7 +4220,7 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="X20" s="2"/>
@@ -4262,7 +4228,7 @@
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="X21" s="2"/>
@@ -4270,7 +4236,7 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="X22" s="2"/>
@@ -4278,7 +4244,7 @@
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="X23" s="2"/>
@@ -4286,7 +4252,7 @@
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="X24" s="2"/>
@@ -4294,7 +4260,7 @@
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="X25" s="2"/>
@@ -4302,7 +4268,7 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="X26" s="2"/>
@@ -4310,7 +4276,7 @@
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="X27" s="2"/>
@@ -4318,7 +4284,7 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="X28" s="2"/>
@@ -4326,7 +4292,7 @@
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="X29" s="2"/>
@@ -4334,7 +4300,7 @@
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="X30" s="2"/>
@@ -4342,7 +4308,7 @@
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="X31" s="2"/>
@@ -4350,7 +4316,7 @@
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="X32" s="2"/>
@@ -4358,7 +4324,7 @@
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="X33" s="2"/>
@@ -4366,7 +4332,7 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="X34" s="2"/>
@@ -4374,7 +4340,7 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="X35" s="2"/>
@@ -4382,7 +4348,7 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="X36" s="2"/>
@@ -4432,37 +4398,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:X182"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="13.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -4536,7 +4502,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -4566,7 +4532,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4590,7 +4556,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4620,7 +4586,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4650,7 +4616,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -4677,7 +4643,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -4704,7 +4670,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24</v>
       </c>
@@ -4731,7 +4697,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -4761,7 +4727,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4788,7 +4754,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4815,7 +4781,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -4845,514 +4811,514 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J182" s="2"/>
     </row>
   </sheetData>
@@ -5397,13 +5363,13 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -5417,7 +5383,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -5431,7 +5397,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -5445,7 +5411,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>68</v>
@@ -5457,7 +5423,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
@@ -5465,7 +5431,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
@@ -5476,7 +5442,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
@@ -5487,7 +5453,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
@@ -5498,7 +5464,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
@@ -5506,7 +5472,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
@@ -5514,7 +5480,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>60</v>
       </c>
@@ -5522,7 +5488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
@@ -5530,7 +5496,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -5538,7 +5504,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>62</v>
       </c>
@@ -5546,7 +5512,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>63</v>
       </c>
@@ -5554,7 +5520,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>64</v>
       </c>
@@ -5562,7 +5528,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
@@ -5584,17 +5550,17 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" customWidth="1"/>
+    <col min="4" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -5620,7 +5586,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -5646,7 +5612,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>21</v>
       </c>
@@ -5672,7 +5638,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -5698,7 +5664,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -5724,175 +5690,175 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
@@ -5913,22 +5879,22 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -5966,7 +5932,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -6004,7 +5970,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -6042,7 +6008,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -6080,7 +6046,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -6118,7 +6084,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -6156,7 +6122,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -6194,7 +6160,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6232,7 +6198,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6270,7 +6236,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6303,7 +6269,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -6341,7 +6307,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -6379,135 +6345,135 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
@@ -6528,16 +6494,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>27</v>
       </c>
@@ -6551,7 +6517,7 @@
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -6569,7 +6535,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -6586,7 +6552,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6606,7 +6572,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -6626,7 +6592,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -6646,7 +6612,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -6666,7 +6632,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6677,7 +6643,7 @@
         <v>275</v>
       </c>
       <c r="D8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E8" t="s">
         <v>326</v>
@@ -6686,7 +6652,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6697,7 +6663,7 @@
         <v>275</v>
       </c>
       <c r="D9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E9" t="s">
         <v>327</v>
@@ -6706,7 +6672,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -6723,7 +6689,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -6740,7 +6706,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -6757,7 +6723,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -6774,7 +6740,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -6791,99 +6757,99 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
@@ -6909,21 +6875,21 @@
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -6955,7 +6921,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -6969,7 +6935,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -6998,7 +6964,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21</v>
       </c>
@@ -7027,7 +6993,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
@@ -7056,7 +7022,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21</v>
       </c>
@@ -7085,7 +7051,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -7114,7 +7080,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -7143,7 +7109,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21</v>
       </c>
@@ -7172,7 +7138,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -7201,7 +7167,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -7230,7 +7196,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21</v>
       </c>
@@ -7259,7 +7225,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
@@ -7288,7 +7254,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -7317,7 +7283,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7344,7 +7310,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -7368,7 +7334,7 @@
       </c>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24</v>
       </c>
@@ -7397,7 +7363,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -7426,7 +7392,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24</v>
       </c>
@@ -7455,7 +7421,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -7484,7 +7450,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -7513,7 +7479,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -7542,7 +7508,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -7571,7 +7537,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -7600,7 +7566,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -7629,7 +7595,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -7658,7 +7624,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -7687,7 +7653,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -7716,7 +7682,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -7745,7 +7711,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -7774,7 +7740,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -7803,7 +7769,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -7832,7 +7798,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -7861,7 +7827,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -7890,7 +7856,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -7919,7 +7885,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -7948,7 +7914,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -7977,7 +7943,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -8019,23 +7985,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="119" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A14" sqref="A3:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -8061,7 +8027,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -8075,7 +8041,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -8102,7 +8068,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21</v>
       </c>
@@ -8129,7 +8095,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
@@ -8156,7 +8122,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21</v>
       </c>
@@ -8183,7 +8149,7 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -8210,7 +8176,7 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -8237,7 +8203,7 @@
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21</v>
       </c>
@@ -8264,7 +8230,7 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -8291,7 +8257,7 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -8318,7 +8284,7 @@
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21</v>
       </c>
@@ -8345,7 +8311,7 @@
       </c>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
@@ -8372,7 +8338,7 @@
       </c>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -8399,7 +8365,7 @@
       </c>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -8426,7 +8392,7 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -8450,7 +8416,7 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24</v>
       </c>
@@ -8477,7 +8443,7 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -8504,7 +8470,7 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24</v>
       </c>
@@ -8531,7 +8497,7 @@
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -8558,7 +8524,7 @@
       </c>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8585,7 +8551,7 @@
       </c>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -8612,7 +8578,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -8639,7 +8605,7 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -8666,7 +8632,7 @@
       </c>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -8693,7 +8659,7 @@
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -8720,7 +8686,7 @@
       </c>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -8747,7 +8713,7 @@
       </c>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -8774,7 +8740,7 @@
       </c>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -8801,7 +8767,7 @@
       </c>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -8828,7 +8794,7 @@
       </c>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -8855,7 +8821,7 @@
       </c>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -8882,7 +8848,7 @@
       </c>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -8909,7 +8875,7 @@
       </c>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -8936,7 +8902,7 @@
       </c>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -8963,7 +8929,7 @@
       </c>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -8990,7 +8956,7 @@
       </c>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -9034,35 +9000,35 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="64.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>27</v>
       </c>
@@ -9096,7 +9062,7 @@
       <c r="Y1" s="29"/>
       <c r="Z1" s="29"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -9174,7 +9140,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -9242,7 +9208,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="176" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -9283,7 +9249,7 @@
         <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P4" t="s">
         <v>296</v>
@@ -9304,7 +9270,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -9364,7 +9330,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -9375,7 +9341,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -9386,7 +9352,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -9397,7 +9363,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -9408,7 +9374,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -9419,7 +9385,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -9430,7 +9396,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -9441,7 +9407,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -9452,7 +9418,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -9463,7 +9429,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -9474,7 +9440,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -9485,7 +9451,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -9496,7 +9462,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -9507,7 +9473,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -9518,7 +9484,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -9529,7 +9495,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9540,7 +9506,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -9551,7 +9517,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9562,7 +9528,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -9573,7 +9539,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -9584,7 +9550,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -9595,7 +9561,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -9606,7 +9572,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -9617,7 +9583,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -9628,7 +9594,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -9639,7 +9605,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -9650,7 +9616,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -9661,7 +9627,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -9672,7 +9638,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -9683,7 +9649,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -9694,7 +9660,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -9705,7 +9671,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9716,7 +9682,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9727,7 +9693,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9738,7 +9704,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9749,7 +9715,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9760,7 +9726,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9771,7 +9737,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9822,18 +9788,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -9856,7 +9822,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -9876,7 +9842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>21</v>
       </c>
@@ -9896,7 +9862,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9945,17 +9911,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -9975,7 +9941,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -9995,7 +9961,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>21</v>
       </c>
@@ -10012,10 +9978,10 @@
         <v>144123</v>
       </c>
       <c r="F3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10045,14 +10011,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fc14db02-3d39-436b-9056-63d1dbe054e8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10251,21 +10215,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fc14db02-3d39-436b-9056-63d1dbe054e8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393C43B1-36EF-42E9-B537-C459014BD9C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85472914-12A9-442B-9065-D37C63210CBF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
-    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10290,9 +10253,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85472914-12A9-442B-9065-D37C63210CBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393C43B1-36EF-42E9-B537-C459014BD9C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
+    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>